--- a/output/StructureDefinition-ncdth-diagnostic-report-lab.xlsx
+++ b/output/StructureDefinition-ncdth-diagnostic-report-lab.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$51</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand DiagnosticReport Profile for Lab Report</t>
+    <t>NCD TH DiagnosticReport Profile for Lab Report</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,6 +547,9 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -591,6 +597,13 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>OBR-24</t>
   </si>
   <si>
@@ -598,6 +611,219 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>LaboratorySlice</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0074</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -613,10 +839,7 @@
     <t>A code or name that describes this diagnostic report.</t>
   </si>
   <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>https://rathpanyowat.github.io/ncd-th-ig-demo/ValueSet/ncdth-lab-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -663,6 +886,92 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>DiagnosticReport.subject.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>DiagnosticReport.encounter</t>
   </si>
   <si>
@@ -915,25 +1224,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1175,6 +1466,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1351,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1360,8 +1666,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.21875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
@@ -1383,11 +1689,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.6015625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.03125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.81640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="41.0625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.8828125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1520,7 +1826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1631,7 +1937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1742,7 +2048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1851,7 +2157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -1962,7 +2268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2073,7 +2379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2184,7 +2490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2295,7 +2601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2406,7 +2712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2519,7 +2825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2632,7 +2938,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2761,7 +3067,7 @@
         <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>89</v>
@@ -2787,7 +3093,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -2805,13 +3111,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>168</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -2844,35 +3150,35 @@
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -2881,16 +3187,16 @@
         <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2916,31 +3222,29 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -2958,22 +3262,24 @@
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2983,7 +3289,7 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -2992,15 +3298,17 @@
         <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3025,13 +3333,13 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3049,13 +3357,13 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
@@ -3064,25 +3372,25 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3098,21 +3406,19 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3160,7 +3466,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3172,35 +3478,35 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -3209,23 +3515,21 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3261,59 +3565,59 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3325,19 +3629,19 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3386,13 +3690,13 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -3401,25 +3705,25 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3435,23 +3739,19 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3499,7 +3799,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3511,28 +3811,28 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3548,23 +3848,21 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3600,19 +3898,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3624,35 +3922,35 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -3664,26 +3962,26 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>79</v>
@@ -3725,13 +4023,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -3740,21 +4038,21 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3765,7 +4063,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -3774,23 +4072,21 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -3838,13 +4134,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -3856,29 +4152,29 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -3887,29 +4183,27 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>79</v>
@@ -3951,13 +4245,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -3969,18 +4263,18 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3991,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4000,21 +4294,21 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4062,13 +4356,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4080,29 +4374,29 @@
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4114,17 +4408,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4173,13 +4469,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4191,18 +4487,18 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4222,19 +4518,23 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4282,7 +4582,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4294,16 +4594,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4311,40 +4611,38 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4369,13 +4667,11 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4393,71 +4689,69 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -4506,36 +4800,36 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4561,17 +4855,13 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -4619,7 +4909,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4631,7 +4921,7 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -4640,26 +4930,26 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -4668,18 +4958,20 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -4716,31 +5008,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -4749,7 +5041,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4757,11 +5049,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4771,27 +5063,27 @@
         <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -4839,7 +5131,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4848,7 +5140,7 @@
         <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
@@ -4857,18 +5149,18 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4879,7 +5171,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -4888,18 +5180,20 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -4924,13 +5218,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -4948,13 +5242,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -4966,18 +5260,18 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4988,7 +5282,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -4997,23 +5291,21 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>324</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5061,13 +5353,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5079,16 +5371,2046 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM51">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-ncdth-diagnostic-report-lab.xlsx
+++ b/output/StructureDefinition-ncdth-diagnostic-report-lab.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH DiagnosticReport Profile for Lab Report</t>
+    <t>DiagnosticReport Profile for Lab (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ DiagnosticReport resource</t>
+    <t>ใช้รายงานผลการตรวจแล็บที่มีหลายรายการย่อย (การจัดกลุ่ม Observation เช่น lab panel)</t>
   </si>
   <si>
     <t>Purpose</t>
